--- a/tests/data_up_to_S2022T04/raw_ranking_S2022T03.xlsx
+++ b/tests/data_up_to_S2022T04/raw_ranking_S2022T03.xlsx
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -807,7 +806,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>750 (S2022T01) + 750 (S2022T03)</t>
+          <t>750 (S2022T03) + 750 (S2022T01)</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -1057,7 +1056,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>750 (S2022T02) + 500 (S2022T01) + 500 (S2022T03)</t>
+          <t>750 (S2022T02) + 500 (S2022T03) + 500 (S2022T01)</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -2170,7 +2169,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>1488</v>
@@ -2225,7 +2224,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Nowotny, Martin</t>
+          <t>Dupertuis, Gaston</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2251,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
         <v>1488</v>
@@ -2307,7 +2306,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Dupertuis, Gaston</t>
+          <t>Nowotny, Martin</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2552,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>500 (S2022T01) + 500 (S2022T02) + 250 (S2022T03)</t>
+          <t>500 (S2022T02) + 500 (S2022T01) + 250 (S2022T03)</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -3580,7 +3579,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
         <v>1386</v>
@@ -3635,7 +3634,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Fernandez, Carlos</t>
+          <t>Rodriguez, Pablo</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3661,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G39" t="n">
         <v>1386</v>
@@ -3717,7 +3716,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Rodriguez, Pablo</t>
+          <t>Fernandez, Carlos</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5555,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="G62" t="n">
         <v>1182</v>
@@ -5611,7 +5610,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Sueldo, Pablo</t>
+          <t>Sartor, Yemel</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5637,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="G63" t="n">
         <v>1182</v>
@@ -5693,7 +5692,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Sartor, Yemel</t>
+          <t>Sueldo, Pablo</t>
         </is>
       </c>
     </row>
@@ -7040,7 +7039,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1093</v>
@@ -7095,7 +7094,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Chiara, Lucio</t>
+          <t>Campos, Dario</t>
         </is>
       </c>
     </row>
@@ -7122,7 +7121,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1093</v>
@@ -7177,7 +7176,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Campos, Dario</t>
+          <t>Chiara, Lucio</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7941,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="G91" t="n">
         <v>1026</v>
@@ -7997,7 +7996,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Escobar, Esteban</t>
+          <t>Rulfi, Daniel</t>
         </is>
       </c>
     </row>
@@ -8024,7 +8023,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G92" t="n">
         <v>1026</v>
@@ -8079,7 +8078,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Rulfi, Daniel</t>
+          <t>Escobar, Esteban</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8269,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="G95" t="n">
         <v>1008</v>
@@ -8325,7 +8324,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>Botta, Maximiliano</t>
+          <t>Apaza, Catriel</t>
         </is>
       </c>
     </row>
@@ -8352,7 +8351,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="G96" t="n">
         <v>1008</v>
@@ -8407,7 +8406,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>Apaza, Catriel</t>
+          <t>Botta, Maximiliano</t>
         </is>
       </c>
     </row>
@@ -8692,7 +8691,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="G100" t="n">
         <v>1000</v>
@@ -8747,7 +8746,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>Mendieta, Elias</t>
+          <t>Arrieta, Maximiliano</t>
         </is>
       </c>
     </row>
@@ -8774,7 +8773,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G101" t="n">
         <v>1000</v>
@@ -8829,7 +8828,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Badano, Pablo</t>
+          <t>Mendieta, Elias</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8855,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="G102" t="n">
         <v>1000</v>
@@ -8911,7 +8910,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Asenie, Santiago</t>
+          <t>Badano, Pablo</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9101,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1000</v>
@@ -9157,7 +9156,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>Arrieta, Maximiliano</t>
+          <t>Asenie, Santiago</t>
         </is>
       </c>
     </row>
@@ -10516,7 +10515,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="G122" t="n">
         <v>951</v>
@@ -10527,13 +10526,13 @@
         </is>
       </c>
       <c r="I122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -10545,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -10557,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T122" t="n">
         <v>0</v>
@@ -10566,12 +10565,16 @@
         <v>0</v>
       </c>
       <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>250 (S2022T02) + 250 (S2022T01) + 125 (S2022T03)</t>
+        </is>
+      </c>
       <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>Aguer, Jose</t>
+          <t>Levin, Raul</t>
         </is>
       </c>
     </row>
@@ -10688,7 +10691,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="G124" t="n">
         <v>951</v>
@@ -10699,13 +10702,13 @@
         </is>
       </c>
       <c r="I124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -10717,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -10729,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T124" t="n">
         <v>0</v>
@@ -10738,16 +10741,12 @@
         <v>0</v>
       </c>
       <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr">
-        <is>
-          <t>250 (S2022T01) + 250 (S2022T02) + 125 (S2022T03)</t>
-        </is>
-      </c>
+      <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>Levin, Raul</t>
+          <t>Aguer, Jose</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10990,7 @@
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
-          <t>125 (S2022T01) + 125 (S2022T03) + 65 (S2022T02)</t>
+          <t>125 (S2022T03) + 125 (S2022T01) + 65 (S2022T02)</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr"/>
@@ -11774,7 +11773,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="G137" t="n">
         <v>866</v>
@@ -11829,7 +11828,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>Miner, Alberto</t>
+          <t>Tenca, Javier</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11855,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G138" t="n">
         <v>866</v>
@@ -11911,7 +11910,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>Tenca, Javier</t>
+          <t>Miner, Alberto</t>
         </is>
       </c>
     </row>
@@ -12872,7 +12871,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G150" t="n">
         <v>779</v>
@@ -12927,7 +12926,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>Fucks, Alyssa</t>
+          <t>Godoy, Franco</t>
         </is>
       </c>
     </row>
@@ -12954,7 +12953,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G151" t="n">
         <v>779</v>
@@ -13009,7 +13008,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>Godoy, Franco</t>
+          <t>Fucks, Alyssa</t>
         </is>
       </c>
     </row>
@@ -13372,7 +13371,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="G156" t="n">
         <v>768</v>
@@ -13427,7 +13426,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>Brian, Martin</t>
+          <t>Cossi, Francisco</t>
         </is>
       </c>
     </row>
@@ -13454,7 +13453,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G157" t="n">
         <v>768</v>
@@ -13509,7 +13508,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>Cossi, Francisco</t>
+          <t>Brian, Martin</t>
         </is>
       </c>
     </row>
@@ -15922,7 +15921,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="G187" t="n">
         <v>704</v>
@@ -15939,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L187" t="n">
         <v>65</v>
@@ -15951,10 +15950,10 @@
         <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P187" t="n">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="Q187" t="n">
         <v>0</v>
@@ -15963,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187" t="n">
         <v>3</v>
@@ -15972,16 +15971,20 @@
         <v>0</v>
       </c>
       <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>75 (S2022T03)</t>
+        </is>
+      </c>
       <c r="X187" t="inlineStr">
         <is>
-          <t>65 (S2022T03) + 65 (S2022T02) + 65 (S2022T01)</t>
+          <t>190 (S2022T01) + 65 (S2022T03) + 40 (S2022T02)</t>
         </is>
       </c>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>Savino, Leandro</t>
+          <t>Colavini, Daniel</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16011,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="G188" t="n">
         <v>704</v>
@@ -16025,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>65</v>
@@ -16037,10 +16040,10 @@
         <v>0</v>
       </c>
       <c r="O188" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P188" t="n">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="Q188" t="n">
         <v>0</v>
@@ -16049,7 +16052,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T188" t="n">
         <v>3</v>
@@ -16058,20 +16061,16 @@
         <v>0</v>
       </c>
       <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr">
-        <is>
-          <t>75 (S2022T03)</t>
-        </is>
-      </c>
+      <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr">
         <is>
-          <t>190 (S2022T01) + 65 (S2022T03) + 40 (S2022T02)</t>
+          <t>65 (S2022T03) + 65 (S2022T02) + 65 (S2022T01)</t>
         </is>
       </c>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>Colavini, Daniel</t>
+          <t>Savino, Leandro</t>
         </is>
       </c>
     </row>
@@ -16758,7 +16757,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="G197" t="n">
         <v>680</v>
@@ -16813,7 +16812,7 @@
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>Portillo, Lucas</t>
+          <t>Delgado, Pablo</t>
         </is>
       </c>
     </row>
@@ -16840,7 +16839,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="G198" t="n">
         <v>680</v>
@@ -16895,7 +16894,7 @@
       <c r="Y198" t="inlineStr"/>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>Delgado, Pablo</t>
+          <t>Arrieta, Matias</t>
         </is>
       </c>
     </row>
@@ -16922,7 +16921,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G199" t="n">
         <v>680</v>
@@ -16977,7 +16976,7 @@
       <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>Arrieta, Matias</t>
+          <t>Muller, Tomas</t>
         </is>
       </c>
     </row>
@@ -17004,7 +17003,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G200" t="n">
         <v>680</v>
@@ -17059,7 +17058,7 @@
       <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>Muller, Tomas</t>
+          <t>Portillo, Lucas</t>
         </is>
       </c>
     </row>
@@ -17414,7 +17413,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="G205" t="n">
         <v>671</v>
@@ -17469,7 +17468,7 @@
       <c r="Y205" t="inlineStr"/>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>Comas, Javier</t>
+          <t>Pillac, Juan Pablo</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17495,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="G206" t="n">
         <v>671</v>
@@ -17551,7 +17550,7 @@
       <c r="Y206" t="inlineStr"/>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>Pillac, Juan Pablo</t>
+          <t>Comas, Javier</t>
         </is>
       </c>
     </row>
@@ -18234,7 +18233,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G215" t="n">
         <v>611</v>
@@ -18245,7 +18244,7 @@
         </is>
       </c>
       <c r="I215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -18254,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M215" t="n">
         <v>0</v>
@@ -18263,10 +18262,10 @@
         <v>0</v>
       </c>
       <c r="O215" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P215" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Q215" t="n">
         <v>0</v>
@@ -18275,21 +18274,29 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U215" t="n">
         <v>0</v>
       </c>
       <c r="V215" t="inlineStr"/>
-      <c r="W215" t="inlineStr"/>
-      <c r="X215" t="inlineStr"/>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>50 (S2022T01)</t>
+        </is>
+      </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>125 (S2022T02) + 65 (S2022T01) + 40 (S2022T03)</t>
+        </is>
+      </c>
       <c r="Y215" t="inlineStr"/>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>Aguirre, Sandra</t>
+          <t>Larrosa, Jorge</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18323,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="G216" t="n">
         <v>611</v>
@@ -18327,7 +18334,7 @@
         </is>
       </c>
       <c r="I216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -18336,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M216" t="n">
         <v>0</v>
@@ -18345,10 +18352,10 @@
         <v>0</v>
       </c>
       <c r="O216" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P216" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="Q216" t="n">
         <v>0</v>
@@ -18357,29 +18364,21 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U216" t="n">
         <v>0</v>
       </c>
       <c r="V216" t="inlineStr"/>
-      <c r="W216" t="inlineStr">
-        <is>
-          <t>50 (S2022T01)</t>
-        </is>
-      </c>
-      <c r="X216" t="inlineStr">
-        <is>
-          <t>125 (S2022T02) + 65 (S2022T01) + 40 (S2022T03)</t>
-        </is>
-      </c>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
       <c r="Y216" t="inlineStr"/>
       <c r="Z216" t="inlineStr">
         <is>
-          <t>Larrosa, Jorge</t>
+          <t>Aguirre, Sandra</t>
         </is>
       </c>
     </row>
@@ -20508,7 +20507,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G242" t="n">
         <v>480</v>
@@ -20563,7 +20562,7 @@
       <c r="Y242" t="inlineStr"/>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>Ferrero, Alejandro</t>
+          <t>Antunez, Pablo</t>
         </is>
       </c>
     </row>
@@ -20590,7 +20589,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G243" t="n">
         <v>480</v>
@@ -20645,7 +20644,7 @@
       <c r="Y243" t="inlineStr"/>
       <c r="Z243" t="inlineStr">
         <is>
-          <t>Antunez, Pablo</t>
+          <t>Ferrero, Alejandro</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20671,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G244" t="n">
         <v>470</v>
@@ -20727,7 +20726,7 @@
       <c r="Y244" t="inlineStr"/>
       <c r="Z244" t="inlineStr">
         <is>
-          <t>Velazquez, Pedro</t>
+          <t>Lell, Claudia</t>
         </is>
       </c>
     </row>
@@ -20754,7 +20753,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G245" t="n">
         <v>470</v>
@@ -20809,7 +20808,7 @@
       <c r="Y245" t="inlineStr"/>
       <c r="Z245" t="inlineStr">
         <is>
-          <t>Lell, Claudia</t>
+          <t>Velazquez, Pedro</t>
         </is>
       </c>
     </row>
@@ -21332,7 +21331,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G252" t="n">
         <v>416</v>
@@ -21387,7 +21386,7 @@
       <c r="Y252" t="inlineStr"/>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>Bertoli, Maximiliano</t>
+          <t>Bertoli, Julian</t>
         </is>
       </c>
     </row>
@@ -21414,7 +21413,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G253" t="n">
         <v>416</v>
@@ -21469,7 +21468,7 @@
       <c r="Y253" t="inlineStr"/>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>Bertoli, Julian</t>
+          <t>Bertoli, Maximiliano</t>
         </is>
       </c>
     </row>
